--- a/hs15/fillcap/mess/mess02/fluidlevel_linearity_C.xlsx
+++ b/hs15/fillcap/mess/mess02/fluidlevel_linearity_C.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="8340" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="8340"/>
   </bookViews>
   <sheets>
-    <sheet name="Plot" sheetId="2" r:id="rId1"/>
-    <sheet name="Güte" sheetId="3" r:id="rId2"/>
-    <sheet name="C" sheetId="4" r:id="rId3"/>
-    <sheet name="fluidlevel_linearity" sheetId="1" r:id="rId4"/>
+    <sheet name="Güte" sheetId="3" r:id="rId1"/>
+    <sheet name="C" sheetId="4" r:id="rId2"/>
+    <sheet name="fluidlevel_linearity" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -220,6 +219,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH"/>
+              <a:t>Güte</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -260,11 +285,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>fluidlevel_linearity!$B$1</c:f>
+              <c:f>fluidlevel_linearity!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>C_10kHz</c:v>
+                  <c:v>Q_10kHz</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -272,7 +297,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -283,7 +308,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -295,10 +320,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>fluidlevel_linearity!$A$2:$A$26</c:f>
+              <c:f>fluidlevel_linearity!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -328,33 +353,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>fluidlevel_linearity!$B$2:$B$26</c:f>
+              <c:f>fluidlevel_linearity!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.03</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.59</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.06</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.72</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.09</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.95</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.43</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.06</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -366,11 +391,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>fluidlevel_linearity!$D$1</c:f>
+              <c:f>fluidlevel_linearity!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>C_100kHz</c:v>
+                  <c:v>Q_100kHz</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -378,7 +403,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -389,7 +414,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -401,10 +426,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>fluidlevel_linearity!$A$2:$A$26</c:f>
+              <c:f>fluidlevel_linearity!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -434,33 +459,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>fluidlevel_linearity!$C$2:$C$26</c:f>
+              <c:f>fluidlevel_linearity!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -472,11 +497,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>fluidlevel_linearity!$F$1</c:f>
+              <c:f>fluidlevel_linearity!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>C_1Mhz</c:v>
+                  <c:v>Q_1MHz</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -484,7 +509,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -495,7 +520,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -507,10 +532,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>fluidlevel_linearity!$A$2:$A$26</c:f>
+              <c:f>fluidlevel_linearity!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -540,229 +565,34 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>fluidlevel_linearity!$D$2:$D$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>4.484</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.9909999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.4539999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.9459999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0279999999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.51</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0429999999999993</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>fluidlevel_linearity!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Test 10kHz</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>fluidlevel_linearity!$H$2:$H$9</c:f>
+              <c:f>fluidlevel_linearity!$G$2:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.4</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>fluidlevel_linearity!$I$2:$I$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>fluidlevel_linearity!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Test 100kHz</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>fluidlevel_linearity!$H$2:$H$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>fluidlevel_linearity!$J$2:$J$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>fluidlevel_linearity!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Test 1MHz</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>fluidlevel_linearity!$H$2:$H$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>fluidlevel_linearity!$K$2:$K$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -776,11 +606,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="288779944"/>
-        <c:axId val="288778376"/>
+        <c:axId val="359121560"/>
+        <c:axId val="359121952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="288779944"/>
+        <c:axId val="359121560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -800,6 +630,37 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -837,16 +698,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288778376"/>
+        <c:crossAx val="359121952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="288778376"/>
+        <c:axId val="359121952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="12"/>
-          <c:min val="9"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -901,7 +760,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288779944"/>
+        <c:crossAx val="359121560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -915,6 +774,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1011,7 +871,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-CH"/>
-              <a:t>Güte</a:t>
+              <a:t>C</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1057,11 +917,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>fluidlevel_linearity!$C$1</c:f>
+              <c:f>fluidlevel_linearity!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Q_10kHz</c:v>
+                  <c:v>C_10kHz</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1125,33 +985,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>fluidlevel_linearity!$C$2:$C$9</c:f>
+              <c:f>fluidlevel_linearity!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>5.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>5.59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.5</c:v>
+                  <c:v>6.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.5</c:v>
+                  <c:v>6.72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>7.09</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.5</c:v>
+                  <c:v>7.95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.5</c:v>
+                  <c:v>8.43</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.5</c:v>
+                  <c:v>9.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1163,11 +1023,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>fluidlevel_linearity!$E$1</c:f>
+              <c:f>fluidlevel_linearity!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Q_100kHz</c:v>
+                  <c:v>C_100kHz</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1231,33 +1091,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>fluidlevel_linearity!$E$2:$E$9</c:f>
+              <c:f>fluidlevel_linearity!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>4.484</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.5</c:v>
+                  <c:v>4.9909999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>5.4539999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>5.9459999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>6.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.5</c:v>
+                  <c:v>7.0279999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>7.51</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.5</c:v>
+                  <c:v>8.0429999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1269,11 +1129,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>fluidlevel_linearity!$G$1</c:f>
+              <c:f>fluidlevel_linearity!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Q_1MHz</c:v>
+                  <c:v>C_1Mhz</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1337,33 +1197,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>fluidlevel_linearity!$G$2:$G$9</c:f>
+              <c:f>fluidlevel_linearity!$F$2:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>29.5</c:v>
+                  <c:v>4.2949999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.4</c:v>
+                  <c:v>4.7880000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.5</c:v>
+                  <c:v>5.242</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.5</c:v>
+                  <c:v>5.6970000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.5</c:v>
+                  <c:v>6.1559999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.5</c:v>
+                  <c:v>6.625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22</c:v>
+                  <c:v>7.0540000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.5</c:v>
+                  <c:v>7.5179999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1378,11 +1238,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="341288824"/>
-        <c:axId val="341284904"/>
+        <c:axId val="359110976"/>
+        <c:axId val="359111368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="341288824"/>
+        <c:axId val="359110976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1402,37 +1262,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1470,12 +1299,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="341284904"/>
+        <c:crossAx val="359111368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="341284904"/>
+        <c:axId val="359111368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1532,608 +1361,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="341288824"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-CH"/>
-              <a:t>C</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>fluidlevel_linearity!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C_10kHz</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>fluidlevel_linearity!$A$2:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>fluidlevel_linearity!$B$2:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5.03</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.59</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.72</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.09</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.95</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.43</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.06</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>fluidlevel_linearity!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C_100kHz</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>fluidlevel_linearity!$A$2:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>fluidlevel_linearity!$D$2:$D$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>4.484</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.9909999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.4539999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.9459999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0279999999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.51</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0429999999999993</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>fluidlevel_linearity!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C_1Mhz</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>fluidlevel_linearity!$A$2:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>fluidlevel_linearity!$F$2:$F$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>4.2949999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.7880000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.242</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.6970000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.1559999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.625</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0540000000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.5179999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="341288040"/>
-        <c:axId val="341284120"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="341288040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="341284120"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="341284120"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="341288040"/>
+        <c:crossAx val="359110976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2289,46 +1517,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3361,527 +2549,11 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="82" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3893,17 +2565,6 @@
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="82" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3938,33 +2599,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304299" cy="6017012"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
